--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5259">
   <si>
     <t>translation_group</t>
   </si>
@@ -15749,12 +15749,6 @@
   </si>
   <si>
     <t xml:space="preserve"> уведомления</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16141,17 +16135,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54798,18 +54792,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5243</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5244</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54819,10 +54805,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
       <c r="D2763" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54833,10 +54819,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="D2764" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54847,10 +54833,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="D2765" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54861,10 +54847,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="D2766" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54875,10 +54861,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="D2767" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54889,10 +54875,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D2768" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54903,10 +54889,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="D2769" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54945,11 +54931,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="D2772" t="s">
-        <v>5260</v>
-      </c>
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6241">
   <si>
     <t>translation_group</t>
   </si>
@@ -17853,6 +17853,906 @@
                                                     Подумайте о том, что вы, как потребитель, хотели бы знать, а затем включите эти функции в свое описание. Для одежды: материалы и покрой. Для еды: ингредиенты и способ приготовления. Маркеры - ваши друзья при перечислении
                                                    функций - попробуйте
                                                             ограничить каждое до 5-8 словами.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Язык администратора</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Редактор кода</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Блог</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>титулы</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Титулы 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Титулы 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Титулы 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Титулы 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Титулы 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Титулы 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Титулы 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Титулы 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>текстовый блок</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Текстовый блок 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Текстовый блок 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Текстовый блок 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Текстовый блок 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Текстовый блок 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Текстовый блок 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Текстовый блок 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Текстовый блок 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Текстовый блок 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Текстовый блок 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Текстовый блок 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Текстовый блок 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Текстовый блок 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Текстовый блок 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Текстовый блок 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Особенности</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Особенности 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Особенности 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Особенности 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Особенности 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>сетки</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>меню</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Меню - скин-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Меню - скин-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Меню - скин-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Меню - скин-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Меню - скин-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>нижние колонтитулы</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Нижние колонтитулы 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Нижние колонтитулы 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Нижние колонтитулы 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Нижние колонтитулы 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Другие</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Джамботрон</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>Джамботрон 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>ценообразование</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Цена 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Макеты по умолчанию</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Здесь нет содержимого</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Пользовательские поля сохраняются</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Существующие поля</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Выберите из существующих полей ниже</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить новые поля</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Добавить новое настраиваемое поле из списка ниже</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ваши поля</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Список ваших добавленных настраиваемых полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">повторять вертикально </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Семейство шрифтов</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Наложение</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Режим смешивания</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Контейнер</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Тип контейнера</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Анимации</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Перезагрузка стилей</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Ссылки на</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Предварительный пакет</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Демо</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Использовать</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Текущий</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Изменение порядка</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Система</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Перенаправление браузера</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Интеграция</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Автономный модуль обновления</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Вам нужен лицензионный ключ для установки этого пакета</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Этот пакет премиум-класса, и для его установки необходимо иметь лицензионный ключ.</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Вам нужен лицензионный ключ</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Лицензия активирована</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Перезагрузка страницы</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Лицензия не активирована</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Обновления системы</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Проверить наличие обновлений системы</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Обратно к списку</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Категория должна иметь название</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Категория скрыта?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Если вы установите для этого параметра значение ДА, эта категория будет скрыта от веб-сайта.</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Упоминание</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ваша корзина пуста.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Результаты найдены</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Если вы выберете Процент в поле выбора, он будет автоматически рассчитываться на основе цены и цены предложения продукта.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>ииуууи</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Перейти к оформлению заказа</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Отображение</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>полученные результаты)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Заголовок страницы — правильная навигационная цепочка</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Заголовок страницы — левая навигационная цепочка</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Условия эксплуатации</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Доставка и возврат</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Около 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Около 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Около 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Дом 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Дом 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Вы должны нажать кнопку «Применить шаблон», чтобы изменить свой шаблон.</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Поиск по критериям</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>номер заказа</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Дата, с</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Установить заказы с даты</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Дата до</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Установите заказы на дату</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Сумма заказа от</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Показать заказ с минимальной суммой</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Сумма заказа до</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Показать заказ с максимальной суммой</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Поиск по продуктам...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Поиск по продуктам</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Статус платежа</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Бесплатный поиск по телефону, имени, электронной почте и т.д...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Отправить эти критерии</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Сбросить фильтр</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Экспортировать все</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Выберите сортировку</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Дата заказа</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Новый &gt; Старый]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Старый &gt; Новый]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Высокий &gt; Низкий]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Низкий &gt; Высокий]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Заказ выполнен</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>в вашей базе данных были найдены переводы из многоязычного модуля.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Предупреждение! Изменение языка по умолчанию может нарушить переводы на вашем сайте.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите продолжить?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Предупреждение! Изменение языка по умолчанию, возможно, сломает ваш сайт.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Отгрузочные реквизиты</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>заказ еще не выполнен</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>заказ выполнен</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Обновлено в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Быстрый просмотр </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Заменить языковые значения</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Переводы импортируются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переводы не найдены в базе данных. Вы хотите импортировать переводы? </t>
   </si>
 </sst>
 </file>
@@ -17876,10 +18776,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17890,7 +18787,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18191,7 +19088,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70253,8 +71150,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6122</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5938</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6222</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6226</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6228</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6229</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6231</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6232</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6233</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6234</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6235</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6236</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6237</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6238</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6240</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70266,5 +73797,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ru_RU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6052">
   <si>
     <t>translation_group</t>
   </si>
@@ -10254,7 +10254,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Заполните поля для получения максимальных результатов при нахождении вашего сайта в поисковых системах.</t>
+    <t>Заполните поля для максимального результата при поиске вашего сайта в поисковых системах.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17263,7 +17263,7 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Добро пожаловать в Microweber</t>
+    <t>Добро пожаловать в Микровебер</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
@@ -17275,7 +17275,7 @@
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Создавайте и редактируйте контент, продавайте в Интернете, управляйте заказами и клиентами.</t>
+    <t>Создавайте и редактируйте контент, продавайте онлайн, управляйте заказами и клиентами.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17311,19 +17311,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Если вы разрешите использование нескольких шаблонов, вы сможете использовать разные шаблоны при создании новых страниц.</t>
+    <t>Если вы разрешите несколько шаблонов, вы сможете использовать разные шаблоны при создании новых страниц.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Системные настройки электронной почты веб-сайта</t>
+    <t>Системные настройки электронной почты сайта</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Доставка сообщений, связанных с новой регистрацией, сбросом пароля и другими функциями системы.</t>
+    <t>Доставлять сообщения, связанные с новой регистрацией, сбросом пароля и другими функциями системы.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17335,7 +17335,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Бывший. Имя вашего веб-сайта</t>
+    <t>Бывший. Название вашего веб-сайта</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17347,13 +17347,13 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Настройте своего провайдера электронной почты.</t>
+    <t>Настройте поставщика электронной почты.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Обычный провайдер электронной почты доставит все сообщения, связанные с сайтом. Включая системные сообщения и сообщения контактной формы.</t>
+    <t>Общий провайдер электронной почты будет доставлять все сообщения, связанные с веб-сайтом. Включая системные сообщения и сообщения контактной формы.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17365,7 +17365,7 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Выберите логотип для своего сайта.</t>
+    <t>Выберите логотип для вашего сайта.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17377,13 +17377,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Веб-сайт Favicon</t>
+    <t>Фавикон веб-сайта</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Изменение языка по умолчанию ..</t>
+    <t>Изменение языка по умолчанию..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17401,19 +17401,19 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Пользователи могут зарегистрироваться с помощью временных адресов электронной почты, таких как Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Пользователи могут регистрироваться с временными адресами электронной почты, такими как Mailinator, MailDrop, Guerrilla...</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Зарегистрированные пользователи могут автоматически получать от вас электронное письмо. Смотрите настройки и публикуйте свои сообщения.</t>
+    <t>Зарегистрированные пользователи могут автоматически получать от вас автоматическое электронное письмо. Смотрите настройки и оставляйте свои сообщения.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Отправлять электронное письмо о регистрации нового пользователя администраторам</t>
+    <t>Отправить электронное письмо о регистрации нового пользователя пользователям-администраторам</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -17425,7 +17425,7 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber - это бесплатный конструктор веб-сайтов и CMS с открытым исходным кодом. Он находится под лицензией MIT, и мы используем PHP-фреймворк Laravel.</t>
+    <t>Microweber — бесплатный конструктор веб-сайтов и CMS с открытым исходным кодом. Он находится под лицензией MIT, и мы используем PHP-фреймворк Laravel.</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17452,7 +17452,7 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Электронная почта интеграции</t>
+    <t>Интеграция с электронной почтой</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
@@ -17464,7 +17464,7 @@
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Установите здесь системные настройки.</t>
+    <t>Настройте параметры системы здесь.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17488,7 +17488,7 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Использовать собственные настройки отправителя</t>
+    <t>Использовать пользовательские настройки отправителя</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
@@ -17506,7 +17506,7 @@
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Здесь вы можете изменить настройки электронной почты системы.</t>
+    <t>Здесь вы можете изменить системные настройки электронной почты.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17518,7 +17518,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Отправлять данные контактных форм глобальным получателям при отправке</t>
+    <t>Отправка данных контактных форм глобальным получателям при отправке</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17530,7 +17530,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Электронные адреса получателей, разделенные запятой.</t>
+    <t>Адреса электронной почты получателей, разделенные запятой.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17578,7 +17578,7 @@
     <t>Timeline</t>
   </si>
   <si>
-    <t>График</t>
+    <t>Лента новостей</t>
   </si>
   <si>
     <t>White label WHMCS</t>
@@ -17593,6 +17593,9 @@
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Шаблон модуля изменился</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17641,7 +17644,7 @@
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>Две текстовые колонки</t>
+    <t>Два текстовых столбца</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
@@ -17674,18 +17677,18 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Настройки Captcha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Настройте параметры ввода капчи из </t>
+    <t xml:space="preserve">Настройте параметры капчи из </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Добавлять/редактировать поля формы с помощью настраиваемых полей</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17695,7 +17698,7 @@
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Имя контактной формы</t>
+    <t>Название контактной формы</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
@@ -17707,13 +17710,13 @@
     <t>Receivers</t>
   </si>
   <si>
-    <t>Приемники</t>
+    <t>приемники</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Отправлять данные контактной формы настраиваемым получателям при отправке</t>
+    <t>Отправка данных контактной формы пользовательским получателям при отправке</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17731,24 +17734,27 @@
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Здесь вы можете изменить глобальные настройки контактной формы.</t>
+    <t>Вы можете изменить глобальные настройки контактной формы здесь.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Автоответчик на сообщение пользователю</t>
+    <t>Автоматический ответ пользователю</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Включить автоответчик на сообщение пользователю</t>
+    <t>Включить автоматический ответ пользователю</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
+    <t>Разрешить пользователям получать «Благодарственные письма после подписки».</t>
+  </si>
+  <si>
     <t>Auto respond subject</t>
   </si>
   <si>
@@ -17758,12 +17764,15 @@
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Автоответчики позволяют настроить автоматические ответы на входящие сообщения электронной почты.</t>
+    <t>Автоответчики позволяют настроить автоматические ответы на входящие электронные письма.</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>Автоответчик</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
@@ -17773,7 +17782,7 @@
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Автоматический ответ настраиваемого отправителя</t>
+    <t>Пользовательский отправитель с автоматическим ответом</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17785,43 +17794,40 @@
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Автоответчик с адреса электронной почты</t>
+    <t>Автоматический ответ с адреса электронной почты</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Автоответчик от имени</t>
+    <t>Автоответ от имени</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Автоответчик ответ на электронную почту</t>
+    <t>Автоматический ответ на электронную почту</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Когда пользователь получает сообщение с автоматическим ответом, он может ответить на электронное письмо.</t>
+    <t>Когда пользователь получает сообщение автоматического ответа, он может ответить на сообщение электронной почты.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Автоответчик на вложениях электронной почты</t>
+    <t>Автоматический ответ на вложения электронной почты</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Если вы хотите прикрепить изображения, вы должны загрузить их в галерею из «Добавить медиа».</t>
-  </si>
-  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>У вас еще нет сообщений</t>
+    <t>У вас пока нет сообщений</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17847,12 +17853,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Как писать продающие описания продуктов
-                                                    Один из лучших способов сделать свой магазин успешным - это потратить некоторое время на написание отличных описаний продуктов. Вы хотите предоставить подробную, но краткую информацию, которая привлечет потенциальных клиентов к покупке.
+    <t>Как писать описания товаров, которые продают
+                                                    Одна из лучших вещей, которую вы можете сделать, чтобы сделать свой магазин успешным, — это потратить некоторое время на написание отличных описаний товаров. Вы хотите предоставить подробную, но краткую информацию, которая побудит потенциальных клиентов совершить покупку.
                                                     Думайте как потребитель
-                                                    Подумайте о том, что вы, как потребитель, хотели бы знать, а затем включите эти функции в свое описание. Для одежды: материалы и покрой. Для еды: ингредиенты и способ приготовления. Маркеры - ваши друзья при перечислении
-                                                   функций - попробуйте
-                                                            ограничить каждое до 5-8 словами.</t>
+                                                    Подумайте, что вы как потребитель хотели бы знать, а затем включите эти функции в свое описание. Для одежды: материалы и крой. Для еды: ингредиенты и способ приготовления. Маркеры — ваши друзья при перечислении
+                                                   функций — попробуйте
+                                                            ограничить каждую из них 5–8 словами.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17861,358 +17867,277 @@
     <t>Язык администратора</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Добавить подстраницу</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Категория удалена</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Контент удален</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Категории поиска</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Создать контент</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Карта</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Любой</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Идентификатор Описание</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Идентификатор по возрастанию</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Ограничение</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>У вас нет товаров в</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Вернуться к</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>категории</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Пользовательские поля сохраняются</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Существующие поля</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Выберите из существующих полей ниже</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить новые поля</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Добавить новое настраиваемое поле из списка ниже</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ваши поля</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Список ваших добавленных настраиваемых полей</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Запас</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Система</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Блог</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Перенаправление браузера</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Интеграция</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Инструмент импорта-экспорта</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Автономный модуль обновления</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Предварительный пакет</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Демо</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Использовать</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Текущий</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Выражать</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Первый класс</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Нажмите и соберите</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Фон видео</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Вы можете активировать многоязычный модуль, чтобы использовать несколько языков.</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Многоязычный режим</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Активируйте многоязычный режим, чтобы иметь несколько языков для вашего контента.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Переводы импортируются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переводы не найдены в базе данных. Вы хотите импортировать переводы? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ваша корзина пуста.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Редактор кода</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Блог</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>титулы</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Титулы 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Титулы 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Титулы 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Титулы 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Титулы 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Титулы 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Титулы 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Титулы 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>текстовый блок</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Текстовый блок 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Текстовый блок 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Текстовый блок 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Текстовый блок 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Текстовый блок 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Текстовый блок 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Текстовый блок 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Текстовый блок 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Текстовый блок 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Текстовый блок 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Текстовый блок 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Текстовый блок 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Текстовый блок 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Текстовый блок 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Текстовый блок 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Особенности</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Особенности 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Особенности 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Особенности 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Особенности 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>сетки</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>меню</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Меню - скин-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Меню - скин-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Меню - скин-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Меню - скин-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Меню - скин-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>нижние колонтитулы</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Нижние колонтитулы 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Нижние колонтитулы 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Нижние колонтитулы 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Нижние колонтитулы 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Другие</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Джамботрон</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>Джамботрон 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>ценообразование</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Цена 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Макеты по умолчанию</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Здесь нет содержимого</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Пользовательские поля сохраняются</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Существующие поля</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Выберите из существующих полей ниже</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Добавить новые поля</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Добавить новое настраиваемое поле из списка ниже</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Ваши поля</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Список ваших добавленных настраиваемых полей</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Новый импорт</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18261,498 +18186,6 @@
   </si>
   <si>
     <t>Перезагрузка стилей</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Ссылки на</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Предварительный пакет</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Демо</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Использовать</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Текущий</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Изменение порядка</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Система</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Перенаправление браузера</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Интеграция</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Автономный модуль обновления</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Вам нужен лицензионный ключ для установки этого пакета</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Этот пакет премиум-класса, и для его установки необходимо иметь лицензионный ключ.</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Вам нужен лицензионный ключ</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Лицензия активирована</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Перезагрузка страницы</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Лицензия не активирована</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Обновления системы</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Проверить наличие обновлений системы</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Обратно к списку</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Категория должна иметь название</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Категория скрыта?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Если вы установите для этого параметра значение ДА, эта категория будет скрыта от веб-сайта.</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Упоминание</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Ваша корзина пуста.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Результаты найдены</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Если вы выберете Процент в поле выбора, он будет автоматически рассчитываться на основе цены и цены предложения продукта.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>ииуууи</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Перейти к оформлению заказа</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Отображение</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>полученные результаты)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заголовок страницы — правильная навигационная цепочка</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заголовок страницы — левая навигационная цепочка</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Условия эксплуатации</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Доставка и возврат</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Около 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Около 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Около 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Дом 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Дом 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Вы должны нажать кнопку «Применить шаблон», чтобы изменить свой шаблон.</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Поиск по критериям</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>номер заказа</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Дата, с</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Установить заказы с даты</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Дата до</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Установите заказы на дату</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Сумма заказа от</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Показать заказ с минимальной суммой</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Сумма заказа до</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Показать заказ с максимальной суммой</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Поиск по продуктам...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Поиск по продуктам</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Статус платежа</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Бесплатный поиск по телефону, имени, электронной почте и т.д...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Отправить эти критерии</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Сбросить фильтр</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Экспортировать все</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Выберите сортировку</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Дата заказа</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Новый &gt; Старый]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Старый &gt; Новый]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Высокий &gt; Низкий]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Низкий &gt; Высокий]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Заказ выполнен</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>в вашей базе данных были найдены переводы из многоязычного модуля.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Предупреждение! Изменение языка по умолчанию может нарушить переводы на вашем сайте.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Вы уверены, что хотите продолжить?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Предупреждение! Изменение языка по умолчанию, возможно, сломает ваш сайт.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Отгрузочные реквизиты</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>заказ еще не выполнен</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>заказ выполнен</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Обновлено в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Быстрый просмотр </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Заменить языковые значения</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Переводы импортируются</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переводы не найдены в базе данных. Вы хотите импортировать переводы? </t>
   </si>
 </sst>
 </file>
@@ -19088,7 +18521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70396,7 +69829,7 @@
         <v>5856</v>
       </c>
       <c r="D3018" t="s">
-        <v>2920</v>
+        <v>5857</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70410,10 +69843,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="D3019" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70427,7 +69860,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="D3020" t="s">
         <v>1578</v>
@@ -70444,10 +69877,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="D3021" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70461,10 +69894,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="D3022" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70478,10 +69911,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="D3023" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70495,10 +69928,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="D3024" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70512,10 +69945,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="D3025" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70529,10 +69962,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="D3026" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70546,10 +69979,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="D3027" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70563,10 +69996,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="D3028" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70580,10 +70013,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D3029" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70597,10 +70030,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="D3030" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70614,7 +70047,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="D3031" t="s">
         <v>2338</v>
@@ -70631,10 +70064,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D3032" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70648,10 +70081,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D3033" t="s">
-        <v>5884</v>
+        <v>4957</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70685,7 +70118,7 @@
         <v>5887</v>
       </c>
       <c r="D3035" t="s">
-        <v>4967</v>
+        <v>5888</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70699,10 +70132,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="D3036" t="s">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70716,10 +70149,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5890</v>
+        <v>5891</v>
       </c>
       <c r="D3037" t="s">
-        <v>5891</v>
+        <v>5892</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70733,10 +70166,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="D3038" t="s">
-        <v>5893</v>
+        <v>5894</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70750,10 +70183,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="D3039" t="s">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70767,10 +70200,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="D3040" t="s">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70784,10 +70217,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="D3041" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70801,10 +70234,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="D3042" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70818,10 +70251,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="D3043" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70835,10 +70268,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="D3044" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70852,10 +70285,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="D3045" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70869,10 +70302,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D3046" t="s">
-        <v>3148</v>
+        <v>5910</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70886,10 +70319,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5909</v>
+        <v>5911</v>
       </c>
       <c r="D3047" t="s">
-        <v>5910</v>
+        <v>5912</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70903,10 +70336,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5911</v>
+        <v>5913</v>
       </c>
       <c r="D3048" t="s">
-        <v>5912</v>
+        <v>5914</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70920,10 +70353,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5913</v>
+        <v>5915</v>
       </c>
       <c r="D3049" t="s">
-        <v>820</v>
+        <v>5916</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70937,10 +70370,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5914</v>
+        <v>5917</v>
       </c>
       <c r="D3050" t="s">
-        <v>5915</v>
+        <v>5918</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70954,10 +70387,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5916</v>
+        <v>5919</v>
       </c>
       <c r="D3051" t="s">
-        <v>5917</v>
+        <v>5920</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70971,10 +70404,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5918</v>
+        <v>5921</v>
       </c>
       <c r="D3052" t="s">
-        <v>5919</v>
+        <v>5922</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70988,10 +70421,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="D3053" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -71005,10 +70438,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
       <c r="D3054" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -71022,10 +70455,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
       <c r="D3055" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -71039,10 +70472,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="D3056" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -71056,10 +70489,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="D3057" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -71073,10 +70506,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="D3058" t="s">
-        <v>5931</v>
+        <v>4254</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71090,10 +70523,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5932</v>
+        <v>5934</v>
       </c>
       <c r="D3059" t="s">
-        <v>5933</v>
+        <v>5935</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71107,10 +70540,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="D3060" t="s">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71124,10 +70557,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5936</v>
+        <v>5938</v>
       </c>
       <c r="D3061" t="s">
-        <v>5937</v>
+        <v>5939</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71138,13 +70571,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5938</v>
+        <v>5940</v>
       </c>
       <c r="C3062" t="s">
-        <v>5939</v>
+        <v>5941</v>
       </c>
       <c r="D3062" t="s">
-        <v>5940</v>
+        <v>5942</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71158,10 +70591,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5941</v>
+        <v>5943</v>
       </c>
       <c r="D3063" t="s">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71175,10 +70608,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="D3064" t="s">
-        <v>5944</v>
+        <v>2084</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71192,10 +70625,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3065" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71209,10 +70642,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="D3066" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71226,10 +70659,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D3067" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71243,10 +70676,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="D3068" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71260,10 +70693,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="D3069" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71277,10 +70710,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3070" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71294,10 +70727,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D3071" t="s">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71311,10 +70744,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="D3072" t="s">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71328,10 +70761,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D3073" t="s">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71345,10 +70778,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="D3074" t="s">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71362,10 +70795,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="D3075" t="s">
-        <v>5966</v>
+        <v>126</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71807,7 +71240,7 @@
         <v>6017</v>
       </c>
       <c r="D3101" t="s">
-        <v>6018</v>
+        <v>1520</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71821,10 +71254,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3102" t="s">
         <v>6019</v>
-      </c>
-      <c r="D3102" t="s">
-        <v>6020</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71838,10 +71271,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3103" t="s">
         <v>6021</v>
-      </c>
-      <c r="D3103" t="s">
-        <v>6022</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71855,10 +71288,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3104" t="s">
         <v>6023</v>
-      </c>
-      <c r="D3104" t="s">
-        <v>6024</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71872,10 +71305,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3105" t="s">
         <v>6025</v>
-      </c>
-      <c r="D3105" t="s">
-        <v>6026</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71889,10 +71322,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3106" t="s">
         <v>6027</v>
-      </c>
-      <c r="D3106" t="s">
-        <v>6028</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71906,10 +71339,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3107" t="s">
         <v>6029</v>
-      </c>
-      <c r="D3107" t="s">
-        <v>6030</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71923,10 +71356,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3108" t="s">
         <v>6031</v>
-      </c>
-      <c r="D3108" t="s">
-        <v>6032</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71939,11 +71372,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6034</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71956,11 +71389,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6033</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71974,10 +71407,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3111" t="s">
         <v>6035</v>
-      </c>
-      <c r="D3111" t="s">
-        <v>6036</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71991,10 +71424,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3112" t="s">
         <v>6037</v>
-      </c>
-      <c r="D3112" t="s">
-        <v>6038</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -72008,10 +71441,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3113" t="s">
         <v>6039</v>
-      </c>
-      <c r="D3113" t="s">
-        <v>6040</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -72025,10 +71458,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3114" t="s">
         <v>6041</v>
-      </c>
-      <c r="D3114" t="s">
-        <v>6042</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72042,10 +71475,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3115" t="s">
         <v>6043</v>
-      </c>
-      <c r="D3115" t="s">
-        <v>6044</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72059,10 +71492,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3116" t="s">
         <v>6045</v>
-      </c>
-      <c r="D3116" t="s">
-        <v>6046</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72076,10 +71509,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3117" t="s">
         <v>6047</v>
-      </c>
-      <c r="D3117" t="s">
-        <v>6048</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72093,10 +71526,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3118" t="s">
         <v>6049</v>
-      </c>
-      <c r="D3118" t="s">
-        <v>6050</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72110,1678 +71543,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3119" t="s">
         <v>6051</v>
       </c>
-      <c r="D3119" t="s">
-        <v>6052</v>
-      </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6122</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5938</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6132</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6132</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3819</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6199</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6221</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6222</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6223</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6224</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4374</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6226</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6227</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6228</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6229</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6230</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2958</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6231</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6232</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6233</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6234</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6235</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6236</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6237</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6238</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6239</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6240</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
